--- a/generateData/old_data.xlsx
+++ b/generateData/old_data.xlsx
@@ -483,8 +483,10 @@
       <c r="D2" t="n">
         <v>8</v>
       </c>
-      <c r="E2" t="n">
-        <v>4</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -508,8 +510,10 @@
       <c r="D3" t="n">
         <v>9</v>
       </c>
-      <c r="E3" t="n">
-        <v>2</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -533,8 +537,10 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>3</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -558,8 +564,10 @@
       <c r="D5" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="n">
-        <v>2</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -583,8 +591,10 @@
       <c r="D6" t="n">
         <v>7</v>
       </c>
-      <c r="E6" t="n">
-        <v>2</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -608,8 +618,10 @@
       <c r="D7" t="n">
         <v>8</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -633,8 +645,10 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
-        <v>3</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -658,8 +672,10 @@
       <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="E9" t="n">
-        <v>3</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -683,8 +699,10 @@
       <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="n">
-        <v>4</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -708,8 +726,10 @@
       <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -733,8 +753,10 @@
       <c r="D12" t="n">
         <v>7</v>
       </c>
-      <c r="E12" t="n">
-        <v>2</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -758,8 +780,10 @@
       <c r="D13" t="n">
         <v>8</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -781,8 +805,10 @@
       <c r="D14" t="n">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
-        <v>4</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -804,8 +830,10 @@
       <c r="D15" t="n">
         <v>9</v>
       </c>
-      <c r="E15" t="n">
-        <v>2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -827,8 +855,10 @@
       <c r="D16" t="n">
         <v>9</v>
       </c>
-      <c r="E16" t="n">
-        <v>4</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -850,8 +880,10 @@
       <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" t="n">
-        <v>3</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -873,8 +905,10 @@
       <c r="D18" t="n">
         <v>9</v>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -896,8 +930,10 @@
       <c r="D19" t="n">
         <v>8</v>
       </c>
-      <c r="E19" t="n">
-        <v>2</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -919,8 +955,10 @@
       <c r="D20" t="n">
         <v>9</v>
       </c>
-      <c r="E20" t="n">
-        <v>2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -942,8 +980,10 @@
       <c r="D21" t="n">
         <v>9</v>
       </c>
-      <c r="E21" t="n">
-        <v>4</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -965,8 +1005,10 @@
       <c r="D22" t="n">
         <v>9</v>
       </c>
-      <c r="E22" t="n">
-        <v>2</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -988,8 +1030,10 @@
       <c r="D23" t="n">
         <v>8</v>
       </c>
-      <c r="E23" t="n">
-        <v>2</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1011,8 +1055,10 @@
       <c r="D24" t="n">
         <v>8</v>
       </c>
-      <c r="E24" t="n">
-        <v>3</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1034,8 +1080,10 @@
       <c r="D25" t="n">
         <v>9</v>
       </c>
-      <c r="E25" t="n">
-        <v>2</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1057,8 +1105,10 @@
       <c r="D26" t="n">
         <v>9</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1080,8 +1130,10 @@
       <c r="D27" t="n">
         <v>9</v>
       </c>
-      <c r="E27" t="n">
-        <v>3</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1103,8 +1155,10 @@
       <c r="D28" t="n">
         <v>9</v>
       </c>
-      <c r="E28" t="n">
-        <v>3</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1126,8 +1180,10 @@
       <c r="D29" t="n">
         <v>7</v>
       </c>
-      <c r="E29" t="n">
-        <v>1</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1149,8 +1205,10 @@
       <c r="D30" t="n">
         <v>8</v>
       </c>
-      <c r="E30" t="n">
-        <v>2</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1172,8 +1230,10 @@
       <c r="D31" t="n">
         <v>7</v>
       </c>
-      <c r="E31" t="n">
-        <v>3</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1195,8 +1255,10 @@
       <c r="D32" t="n">
         <v>8</v>
       </c>
-      <c r="E32" t="n">
-        <v>4</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1218,8 +1280,10 @@
       <c r="D33" t="n">
         <v>8</v>
       </c>
-      <c r="E33" t="n">
-        <v>3</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1241,8 +1305,10 @@
       <c r="D34" t="n">
         <v>8</v>
       </c>
-      <c r="E34" t="n">
-        <v>1</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1264,8 +1330,10 @@
       <c r="D35" t="n">
         <v>9</v>
       </c>
-      <c r="E35" t="n">
-        <v>3</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1287,8 +1355,10 @@
       <c r="D36" t="n">
         <v>8</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1310,8 +1380,10 @@
       <c r="D37" t="n">
         <v>8</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1333,8 +1405,10 @@
       <c r="D38" t="n">
         <v>9</v>
       </c>
-      <c r="E38" t="n">
-        <v>4</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1356,8 +1430,10 @@
       <c r="D39" t="n">
         <v>9</v>
       </c>
-      <c r="E39" t="n">
-        <v>3</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1379,8 +1455,10 @@
       <c r="D40" t="n">
         <v>9</v>
       </c>
-      <c r="E40" t="n">
-        <v>4</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1402,8 +1480,10 @@
       <c r="D41" t="n">
         <v>9</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1425,8 +1505,10 @@
       <c r="D42" t="n">
         <v>8</v>
       </c>
-      <c r="E42" t="n">
-        <v>2</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1448,8 +1530,10 @@
       <c r="D43" t="n">
         <v>9</v>
       </c>
-      <c r="E43" t="n">
-        <v>1</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1471,8 +1555,10 @@
       <c r="D44" t="n">
         <v>9</v>
       </c>
-      <c r="E44" t="n">
-        <v>1</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1494,8 +1580,10 @@
       <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="n">
-        <v>3</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1517,8 +1605,10 @@
       <c r="D46" t="n">
         <v>8</v>
       </c>
-      <c r="E46" t="n">
-        <v>1</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1540,8 +1630,10 @@
       <c r="D47" t="n">
         <v>9</v>
       </c>
-      <c r="E47" t="n">
-        <v>4</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1563,8 +1655,10 @@
       <c r="D48" t="n">
         <v>8</v>
       </c>
-      <c r="E48" t="n">
-        <v>4</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1586,8 +1680,10 @@
       <c r="D49" t="n">
         <v>9</v>
       </c>
-      <c r="E49" t="n">
-        <v>3</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1609,8 +1705,10 @@
       <c r="D50" t="n">
         <v>9</v>
       </c>
-      <c r="E50" t="n">
-        <v>1</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1632,8 +1730,10 @@
       <c r="D51" t="n">
         <v>7</v>
       </c>
-      <c r="E51" t="n">
-        <v>3</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1655,8 +1755,10 @@
       <c r="D52" t="n">
         <v>7</v>
       </c>
-      <c r="E52" t="n">
-        <v>3</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1678,8 +1780,10 @@
       <c r="D53" t="n">
         <v>8</v>
       </c>
-      <c r="E53" t="n">
-        <v>3</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1701,8 +1805,10 @@
       <c r="D54" t="n">
         <v>9</v>
       </c>
-      <c r="E54" t="n">
-        <v>1</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1724,8 +1830,10 @@
       <c r="D55" t="n">
         <v>9</v>
       </c>
-      <c r="E55" t="n">
-        <v>4</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1747,8 +1855,10 @@
       <c r="D56" t="n">
         <v>9</v>
       </c>
-      <c r="E56" t="n">
-        <v>3</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1770,8 +1880,10 @@
       <c r="D57" t="n">
         <v>9</v>
       </c>
-      <c r="E57" t="n">
-        <v>4</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1793,8 +1905,10 @@
       <c r="D58" t="n">
         <v>9</v>
       </c>
-      <c r="E58" t="n">
-        <v>4</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1816,8 +1930,10 @@
       <c r="D59" t="n">
         <v>7</v>
       </c>
-      <c r="E59" t="n">
-        <v>3</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1839,8 +1955,10 @@
       <c r="D60" t="n">
         <v>9</v>
       </c>
-      <c r="E60" t="n">
-        <v>2</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1862,8 +1980,10 @@
       <c r="D61" t="n">
         <v>9</v>
       </c>
-      <c r="E61" t="n">
-        <v>4</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1885,8 +2005,10 @@
       <c r="D62" t="n">
         <v>7</v>
       </c>
-      <c r="E62" t="n">
-        <v>2</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1908,8 +2030,10 @@
       <c r="D63" t="n">
         <v>8</v>
       </c>
-      <c r="E63" t="n">
-        <v>2</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1931,8 +2055,10 @@
       <c r="D64" t="n">
         <v>9</v>
       </c>
-      <c r="E64" t="n">
-        <v>3</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1954,8 +2080,10 @@
       <c r="D65" t="n">
         <v>7</v>
       </c>
-      <c r="E65" t="n">
-        <v>1</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1977,8 +2105,10 @@
       <c r="D66" t="n">
         <v>9</v>
       </c>
-      <c r="E66" t="n">
-        <v>1</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2000,8 +2130,10 @@
       <c r="D67" t="n">
         <v>7</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2023,8 +2155,10 @@
       <c r="D68" t="n">
         <v>9</v>
       </c>
-      <c r="E68" t="n">
-        <v>2</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2046,8 +2180,10 @@
       <c r="D69" t="n">
         <v>7</v>
       </c>
-      <c r="E69" t="n">
-        <v>2</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2069,8 +2205,10 @@
       <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="E70" t="n">
-        <v>2</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2092,8 +2230,10 @@
       <c r="D71" t="n">
         <v>8</v>
       </c>
-      <c r="E71" t="n">
-        <v>3</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2115,8 +2255,10 @@
       <c r="D72" t="n">
         <v>8</v>
       </c>
-      <c r="E72" t="n">
-        <v>3</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2138,8 +2280,10 @@
       <c r="D73" t="n">
         <v>8</v>
       </c>
-      <c r="E73" t="n">
-        <v>3</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2161,8 +2305,10 @@
       <c r="D74" t="n">
         <v>8</v>
       </c>
-      <c r="E74" t="n">
-        <v>4</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2184,8 +2330,10 @@
       <c r="D75" t="n">
         <v>8</v>
       </c>
-      <c r="E75" t="n">
-        <v>2</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2207,8 +2355,10 @@
       <c r="D76" t="n">
         <v>8</v>
       </c>
-      <c r="E76" t="n">
-        <v>4</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2230,8 +2380,10 @@
       <c r="D77" t="n">
         <v>8</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2253,8 +2405,10 @@
       <c r="D78" t="n">
         <v>7</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2276,8 +2430,10 @@
       <c r="D79" t="n">
         <v>9</v>
       </c>
-      <c r="E79" t="n">
-        <v>1</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2299,8 +2455,10 @@
       <c r="D80" t="n">
         <v>9</v>
       </c>
-      <c r="E80" t="n">
-        <v>0</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2322,8 +2480,10 @@
       <c r="D81" t="n">
         <v>9</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2345,8 +2505,10 @@
       <c r="D82" t="n">
         <v>7</v>
       </c>
-      <c r="E82" t="n">
-        <v>2</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2368,8 +2530,10 @@
       <c r="D83" t="n">
         <v>8</v>
       </c>
-      <c r="E83" t="n">
-        <v>3</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2391,8 +2555,10 @@
       <c r="D84" t="n">
         <v>9</v>
       </c>
-      <c r="E84" t="n">
-        <v>3</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2414,8 +2580,10 @@
       <c r="D85" t="n">
         <v>8</v>
       </c>
-      <c r="E85" t="n">
-        <v>4</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2437,8 +2605,10 @@
       <c r="D86" t="n">
         <v>8</v>
       </c>
-      <c r="E86" t="n">
-        <v>4</v>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2460,8 +2630,10 @@
       <c r="D87" t="n">
         <v>9</v>
       </c>
-      <c r="E87" t="n">
-        <v>2</v>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2483,8 +2655,10 @@
       <c r="D88" t="n">
         <v>8</v>
       </c>
-      <c r="E88" t="n">
-        <v>4</v>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2506,8 +2680,10 @@
       <c r="D89" t="n">
         <v>7</v>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2529,8 +2705,10 @@
       <c r="D90" t="n">
         <v>9</v>
       </c>
-      <c r="E90" t="n">
-        <v>0</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2552,8 +2730,10 @@
       <c r="D91" t="n">
         <v>8</v>
       </c>
-      <c r="E91" t="n">
-        <v>3</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2575,8 +2755,10 @@
       <c r="D92" t="n">
         <v>8</v>
       </c>
-      <c r="E92" t="n">
-        <v>4</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2598,8 +2780,10 @@
       <c r="D93" t="n">
         <v>7</v>
       </c>
-      <c r="E93" t="n">
-        <v>3</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2621,8 +2805,10 @@
       <c r="D94" t="n">
         <v>9</v>
       </c>
-      <c r="E94" t="n">
-        <v>3</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2644,8 +2830,10 @@
       <c r="D95" t="n">
         <v>8</v>
       </c>
-      <c r="E95" t="n">
-        <v>3</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2667,8 +2855,10 @@
       <c r="D96" t="n">
         <v>9</v>
       </c>
-      <c r="E96" t="n">
-        <v>1</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2690,8 +2880,10 @@
       <c r="D97" t="n">
         <v>8</v>
       </c>
-      <c r="E97" t="n">
-        <v>4</v>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2713,8 +2905,10 @@
       <c r="D98" t="n">
         <v>8</v>
       </c>
-      <c r="E98" t="n">
-        <v>1</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2736,8 +2930,10 @@
       <c r="D99" t="n">
         <v>8</v>
       </c>
-      <c r="E99" t="n">
-        <v>2</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2759,8 +2955,10 @@
       <c r="D100" t="n">
         <v>9</v>
       </c>
-      <c r="E100" t="n">
-        <v>4</v>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2782,8 +2980,10 @@
       <c r="D101" t="n">
         <v>8</v>
       </c>
-      <c r="E101" t="n">
-        <v>2</v>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2805,8 +3005,10 @@
       <c r="D102" t="n">
         <v>6</v>
       </c>
-      <c r="E102" t="n">
-        <v>1</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2828,8 +3030,10 @@
       <c r="D103" t="n">
         <v>8</v>
       </c>
-      <c r="E103" t="n">
-        <v>4</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2851,8 +3055,10 @@
       <c r="D104" t="n">
         <v>8</v>
       </c>
-      <c r="E104" t="n">
-        <v>3</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2874,8 +3080,10 @@
       <c r="D105" t="n">
         <v>9</v>
       </c>
-      <c r="E105" t="n">
-        <v>3</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2897,8 +3105,10 @@
       <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" t="n">
-        <v>4</v>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2920,8 +3130,10 @@
       <c r="D107" t="n">
         <v>5</v>
       </c>
-      <c r="E107" t="n">
-        <v>5</v>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2943,8 +3155,10 @@
       <c r="D108" t="n">
         <v>6</v>
       </c>
-      <c r="E108" t="n">
-        <v>4</v>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2966,8 +3180,10 @@
       <c r="D109" t="n">
         <v>7</v>
       </c>
-      <c r="E109" t="n">
-        <v>4</v>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2989,8 +3205,10 @@
       <c r="D110" t="n">
         <v>5</v>
       </c>
-      <c r="E110" t="n">
-        <v>4</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3012,8 +3230,10 @@
       <c r="D111" t="n">
         <v>8</v>
       </c>
-      <c r="E111" t="n">
-        <v>4</v>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3035,8 +3255,10 @@
       <c r="D112" t="n">
         <v>8</v>
       </c>
-      <c r="E112" t="n">
-        <v>5</v>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3058,8 +3280,10 @@
       <c r="D113" t="n">
         <v>5</v>
       </c>
-      <c r="E113" t="n">
-        <v>4</v>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3081,8 +3305,10 @@
       <c r="D114" t="n">
         <v>8</v>
       </c>
-      <c r="E114" t="n">
-        <v>4</v>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3104,8 +3330,10 @@
       <c r="D115" t="n">
         <v>8</v>
       </c>
-      <c r="E115" t="n">
-        <v>4</v>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3127,8 +3355,10 @@
       <c r="D116" t="n">
         <v>7</v>
       </c>
-      <c r="E116" t="n">
-        <v>4</v>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3150,8 +3380,10 @@
       <c r="D117" t="n">
         <v>7</v>
       </c>
-      <c r="E117" t="n">
-        <v>4</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3173,8 +3405,10 @@
       <c r="D118" t="n">
         <v>5</v>
       </c>
-      <c r="E118" t="n">
-        <v>4</v>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3196,8 +3430,10 @@
       <c r="D119" t="n">
         <v>4</v>
       </c>
-      <c r="E119" t="n">
-        <v>5</v>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3219,8 +3455,10 @@
       <c r="D120" t="n">
         <v>7</v>
       </c>
-      <c r="E120" t="n">
-        <v>4</v>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3242,8 +3480,10 @@
       <c r="D121" t="n">
         <v>6</v>
       </c>
-      <c r="E121" t="n">
-        <v>4</v>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3265,8 +3505,10 @@
       <c r="D122" t="n">
         <v>5</v>
       </c>
-      <c r="E122" t="n">
-        <v>4</v>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3288,8 +3530,10 @@
       <c r="D123" t="n">
         <v>6</v>
       </c>
-      <c r="E123" t="n">
-        <v>5</v>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3311,8 +3555,10 @@
       <c r="D124" t="n">
         <v>5</v>
       </c>
-      <c r="E124" t="n">
-        <v>4</v>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3334,8 +3580,10 @@
       <c r="D125" t="n">
         <v>4</v>
       </c>
-      <c r="E125" t="n">
-        <v>4</v>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3357,8 +3605,10 @@
       <c r="D126" t="n">
         <v>6</v>
       </c>
-      <c r="E126" t="n">
-        <v>4</v>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3380,8 +3630,10 @@
       <c r="D127" t="n">
         <v>8</v>
       </c>
-      <c r="E127" t="n">
-        <v>4</v>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3403,8 +3655,10 @@
       <c r="D128" t="n">
         <v>4</v>
       </c>
-      <c r="E128" t="n">
-        <v>5</v>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3426,8 +3680,10 @@
       <c r="D129" t="n">
         <v>6</v>
       </c>
-      <c r="E129" t="n">
-        <v>4</v>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3449,8 +3705,10 @@
       <c r="D130" t="n">
         <v>6</v>
       </c>
-      <c r="E130" t="n">
-        <v>4</v>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3472,8 +3730,10 @@
       <c r="D131" t="n">
         <v>5</v>
       </c>
-      <c r="E131" t="n">
-        <v>4</v>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3495,8 +3755,10 @@
       <c r="D132" t="n">
         <v>8</v>
       </c>
-      <c r="E132" t="n">
-        <v>5</v>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3518,8 +3780,10 @@
       <c r="D133" t="n">
         <v>5</v>
       </c>
-      <c r="E133" t="n">
-        <v>4</v>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3541,8 +3805,10 @@
       <c r="D134" t="n">
         <v>7</v>
       </c>
-      <c r="E134" t="n">
-        <v>5</v>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3564,8 +3830,10 @@
       <c r="D135" t="n">
         <v>6</v>
       </c>
-      <c r="E135" t="n">
-        <v>4</v>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3587,8 +3855,10 @@
       <c r="D136" t="n">
         <v>7</v>
       </c>
-      <c r="E136" t="n">
-        <v>5</v>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3610,8 +3880,10 @@
       <c r="D137" t="n">
         <v>5</v>
       </c>
-      <c r="E137" t="n">
-        <v>4</v>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3633,8 +3905,10 @@
       <c r="D138" t="n">
         <v>5</v>
       </c>
-      <c r="E138" t="n">
-        <v>4</v>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3656,8 +3930,10 @@
       <c r="D139" t="n">
         <v>5</v>
       </c>
-      <c r="E139" t="n">
-        <v>4</v>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3679,8 +3955,10 @@
       <c r="D140" t="n">
         <v>5</v>
       </c>
-      <c r="E140" t="n">
-        <v>4</v>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3702,8 +3980,10 @@
       <c r="D141" t="n">
         <v>6</v>
       </c>
-      <c r="E141" t="n">
-        <v>5</v>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3725,8 +4005,10 @@
       <c r="D142" t="n">
         <v>5</v>
       </c>
-      <c r="E142" t="n">
-        <v>5</v>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3748,8 +4030,10 @@
       <c r="D143" t="n">
         <v>6</v>
       </c>
-      <c r="E143" t="n">
-        <v>4</v>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3771,8 +4055,10 @@
       <c r="D144" t="n">
         <v>8</v>
       </c>
-      <c r="E144" t="n">
-        <v>4</v>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3794,8 +4080,10 @@
       <c r="D145" t="n">
         <v>6</v>
       </c>
-      <c r="E145" t="n">
-        <v>5</v>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3817,8 +4105,10 @@
       <c r="D146" t="n">
         <v>7</v>
       </c>
-      <c r="E146" t="n">
-        <v>4</v>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3840,8 +4130,10 @@
       <c r="D147" t="n">
         <v>6</v>
       </c>
-      <c r="E147" t="n">
-        <v>4</v>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3863,8 +4155,10 @@
       <c r="D148" t="n">
         <v>7</v>
       </c>
-      <c r="E148" t="n">
-        <v>4</v>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3886,8 +4180,10 @@
       <c r="D149" t="n">
         <v>6</v>
       </c>
-      <c r="E149" t="n">
-        <v>4</v>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3909,8 +4205,10 @@
       <c r="D150" t="n">
         <v>6</v>
       </c>
-      <c r="E150" t="n">
-        <v>5</v>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3932,8 +4230,10 @@
       <c r="D151" t="n">
         <v>4</v>
       </c>
-      <c r="E151" t="n">
-        <v>4</v>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3955,8 +4255,10 @@
       <c r="D152" t="n">
         <v>6</v>
       </c>
-      <c r="E152" t="n">
-        <v>4</v>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -3978,8 +4280,10 @@
       <c r="D153" t="n">
         <v>7</v>
       </c>
-      <c r="E153" t="n">
-        <v>5</v>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4001,8 +4305,10 @@
       <c r="D154" t="n">
         <v>6</v>
       </c>
-      <c r="E154" t="n">
-        <v>4</v>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4024,8 +4330,10 @@
       <c r="D155" t="n">
         <v>8</v>
       </c>
-      <c r="E155" t="n">
-        <v>4</v>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4047,8 +4355,10 @@
       <c r="D156" t="n">
         <v>6</v>
       </c>
-      <c r="E156" t="n">
-        <v>4</v>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4070,8 +4380,10 @@
       <c r="D157" t="n">
         <v>6</v>
       </c>
-      <c r="E157" t="n">
-        <v>6</v>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4093,8 +4405,10 @@
       <c r="D158" t="n">
         <v>7</v>
       </c>
-      <c r="E158" t="n">
-        <v>5</v>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4116,8 +4430,10 @@
       <c r="D159" t="n">
         <v>7</v>
       </c>
-      <c r="E159" t="n">
-        <v>4</v>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4139,8 +4455,10 @@
       <c r="D160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="n">
-        <v>4</v>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4162,8 +4480,10 @@
       <c r="D161" t="n">
         <v>7</v>
       </c>
-      <c r="E161" t="n">
-        <v>4</v>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4185,8 +4505,10 @@
       <c r="D162" t="n">
         <v>8</v>
       </c>
-      <c r="E162" t="n">
-        <v>5</v>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4208,8 +4530,10 @@
       <c r="D163" t="n">
         <v>4</v>
       </c>
-      <c r="E163" t="n">
-        <v>4</v>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4231,8 +4555,10 @@
       <c r="D164" t="n">
         <v>7</v>
       </c>
-      <c r="E164" t="n">
-        <v>5</v>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4254,8 +4580,10 @@
       <c r="D165" t="n">
         <v>8</v>
       </c>
-      <c r="E165" t="n">
-        <v>4</v>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4277,8 +4605,10 @@
       <c r="D166" t="n">
         <v>7</v>
       </c>
-      <c r="E166" t="n">
-        <v>4</v>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4300,8 +4630,10 @@
       <c r="D167" t="n">
         <v>4</v>
       </c>
-      <c r="E167" t="n">
-        <v>4</v>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4323,8 +4655,10 @@
       <c r="D168" t="n">
         <v>4</v>
       </c>
-      <c r="E168" t="n">
-        <v>4</v>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4346,8 +4680,10 @@
       <c r="D169" t="n">
         <v>4</v>
       </c>
-      <c r="E169" t="n">
-        <v>5</v>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4369,8 +4705,10 @@
       <c r="D170" t="n">
         <v>7</v>
       </c>
-      <c r="E170" t="n">
-        <v>5</v>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4392,8 +4730,10 @@
       <c r="D171" t="n">
         <v>7</v>
       </c>
-      <c r="E171" t="n">
-        <v>4</v>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4415,8 +4755,10 @@
       <c r="D172" t="n">
         <v>7</v>
       </c>
-      <c r="E172" t="n">
-        <v>4</v>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4438,8 +4780,10 @@
       <c r="D173" t="n">
         <v>6</v>
       </c>
-      <c r="E173" t="n">
-        <v>4</v>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4461,8 +4805,10 @@
       <c r="D174" t="n">
         <v>8</v>
       </c>
-      <c r="E174" t="n">
-        <v>4</v>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4484,8 +4830,10 @@
       <c r="D175" t="n">
         <v>8</v>
       </c>
-      <c r="E175" t="n">
-        <v>4</v>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4507,8 +4855,10 @@
       <c r="D176" t="n">
         <v>4</v>
       </c>
-      <c r="E176" t="n">
-        <v>4</v>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4530,8 +4880,10 @@
       <c r="D177" t="n">
         <v>7</v>
       </c>
-      <c r="E177" t="n">
-        <v>4</v>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4553,8 +4905,10 @@
       <c r="D178" t="n">
         <v>5</v>
       </c>
-      <c r="E178" t="n">
-        <v>4</v>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4576,8 +4930,10 @@
       <c r="D179" t="n">
         <v>4</v>
       </c>
-      <c r="E179" t="n">
-        <v>4</v>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4599,8 +4955,10 @@
       <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="n">
-        <v>5</v>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4622,8 +4980,10 @@
       <c r="D181" t="n">
         <v>6</v>
       </c>
-      <c r="E181" t="n">
-        <v>4</v>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4645,8 +5005,10 @@
       <c r="D182" t="n">
         <v>6</v>
       </c>
-      <c r="E182" t="n">
-        <v>4</v>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4668,8 +5030,10 @@
       <c r="D183" t="n">
         <v>7</v>
       </c>
-      <c r="E183" t="n">
-        <v>4</v>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4691,8 +5055,10 @@
       <c r="D184" t="n">
         <v>5</v>
       </c>
-      <c r="E184" t="n">
-        <v>6</v>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4714,8 +5080,10 @@
       <c r="D185" t="n">
         <v>7</v>
       </c>
-      <c r="E185" t="n">
-        <v>4</v>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4737,8 +5105,10 @@
       <c r="D186" t="n">
         <v>7</v>
       </c>
-      <c r="E186" t="n">
-        <v>4</v>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4760,8 +5130,10 @@
       <c r="D187" t="n">
         <v>8</v>
       </c>
-      <c r="E187" t="n">
-        <v>5</v>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4783,8 +5155,10 @@
       <c r="D188" t="n">
         <v>6</v>
       </c>
-      <c r="E188" t="n">
-        <v>5</v>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4806,8 +5180,10 @@
       <c r="D189" t="n">
         <v>8</v>
       </c>
-      <c r="E189" t="n">
-        <v>4</v>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4829,8 +5205,10 @@
       <c r="D190" t="n">
         <v>7</v>
       </c>
-      <c r="E190" t="n">
-        <v>4</v>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4852,8 +5230,10 @@
       <c r="D191" t="n">
         <v>7</v>
       </c>
-      <c r="E191" t="n">
-        <v>4</v>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4875,8 +5255,10 @@
       <c r="D192" t="n">
         <v>6</v>
       </c>
-      <c r="E192" t="n">
-        <v>5</v>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4898,8 +5280,10 @@
       <c r="D193" t="n">
         <v>7</v>
       </c>
-      <c r="E193" t="n">
-        <v>4</v>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -4921,8 +5305,10 @@
       <c r="D194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="n">
-        <v>4</v>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -4944,8 +5330,10 @@
       <c r="D195" t="n">
         <v>7</v>
       </c>
-      <c r="E195" t="n">
-        <v>4</v>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -4967,8 +5355,10 @@
       <c r="D196" t="n">
         <v>7</v>
       </c>
-      <c r="E196" t="n">
-        <v>4</v>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -4990,8 +5380,10 @@
       <c r="D197" t="n">
         <v>5</v>
       </c>
-      <c r="E197" t="n">
-        <v>4</v>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5013,8 +5405,10 @@
       <c r="D198" t="n">
         <v>6</v>
       </c>
-      <c r="E198" t="n">
-        <v>4</v>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5036,8 +5430,10 @@
       <c r="D199" t="n">
         <v>7</v>
       </c>
-      <c r="E199" t="n">
-        <v>4</v>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5059,8 +5455,10 @@
       <c r="D200" t="n">
         <v>7</v>
       </c>
-      <c r="E200" t="n">
-        <v>4</v>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -5082,8 +5480,10 @@
       <c r="D201" t="n">
         <v>5</v>
       </c>
-      <c r="E201" t="n">
-        <v>5</v>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -5105,8 +5505,10 @@
       <c r="D202" t="n">
         <v>7</v>
       </c>
-      <c r="E202" t="n">
-        <v>4</v>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5128,8 +5530,10 @@
       <c r="D203" t="n">
         <v>6</v>
       </c>
-      <c r="E203" t="n">
-        <v>4</v>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5151,8 +5555,10 @@
       <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" t="n">
-        <v>4</v>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5174,8 +5580,10 @@
       <c r="D205" t="n">
         <v>8</v>
       </c>
-      <c r="E205" t="n">
-        <v>4</v>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5197,8 +5605,10 @@
       <c r="D206" t="n">
         <v>7</v>
       </c>
-      <c r="E206" t="n">
-        <v>7</v>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5220,8 +5630,10 @@
       <c r="D207" t="n">
         <v>7</v>
       </c>
-      <c r="E207" t="n">
-        <v>1</v>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5243,8 +5655,10 @@
       <c r="D208" t="n">
         <v>7</v>
       </c>
-      <c r="E208" t="n">
-        <v>1</v>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5266,8 +5680,10 @@
       <c r="D209" t="n">
         <v>7</v>
       </c>
-      <c r="E209" t="n">
-        <v>1</v>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5289,8 +5705,10 @@
       <c r="D210" t="n">
         <v>9</v>
       </c>
-      <c r="E210" t="n">
-        <v>3</v>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5312,8 +5730,10 @@
       <c r="D211" t="n">
         <v>9</v>
       </c>
-      <c r="E211" t="n">
-        <v>3</v>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5335,8 +5755,10 @@
       <c r="D212" t="n">
         <v>9</v>
       </c>
-      <c r="E212" t="n">
-        <v>2</v>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5358,8 +5780,10 @@
       <c r="D213" t="n">
         <v>9</v>
       </c>
-      <c r="E213" t="n">
-        <v>2</v>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5381,8 +5805,10 @@
       <c r="D214" t="n">
         <v>9</v>
       </c>
-      <c r="E214" t="n">
-        <v>2</v>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5404,8 +5830,10 @@
       <c r="D215" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="n">
-        <v>2</v>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5427,8 +5855,10 @@
       <c r="D216" t="n">
         <v>5</v>
       </c>
-      <c r="E216" t="n">
-        <v>1</v>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5450,8 +5880,10 @@
       <c r="D217" t="n">
         <v>6</v>
       </c>
-      <c r="E217" t="n">
-        <v>3</v>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5473,8 +5905,10 @@
       <c r="D218" t="n">
         <v>9</v>
       </c>
-      <c r="E218" t="n">
-        <v>3</v>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5496,8 +5930,10 @@
       <c r="D219" t="n">
         <v>6</v>
       </c>
-      <c r="E219" t="n">
-        <v>3</v>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5519,8 +5955,10 @@
       <c r="D220" t="n">
         <v>9</v>
       </c>
-      <c r="E220" t="n">
-        <v>2</v>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5542,8 +5980,10 @@
       <c r="D221" t="n">
         <v>8</v>
       </c>
-      <c r="E221" t="n">
-        <v>3</v>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5565,8 +6005,10 @@
       <c r="D222" t="n">
         <v>8</v>
       </c>
-      <c r="E222" t="n">
-        <v>3</v>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5588,8 +6030,10 @@
       <c r="D223" t="n">
         <v>6</v>
       </c>
-      <c r="E223" t="n">
-        <v>2</v>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5611,8 +6055,10 @@
       <c r="D224" t="n">
         <v>6</v>
       </c>
-      <c r="E224" t="n">
-        <v>2</v>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5634,8 +6080,10 @@
       <c r="D225" t="n">
         <v>8</v>
       </c>
-      <c r="E225" t="n">
-        <v>3</v>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5657,8 +6105,10 @@
       <c r="D226" t="n">
         <v>9</v>
       </c>
-      <c r="E226" t="n">
-        <v>2</v>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5680,8 +6130,10 @@
       <c r="D227" t="n">
         <v>8</v>
       </c>
-      <c r="E227" t="n">
-        <v>2</v>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5703,8 +6155,10 @@
       <c r="D228" t="n">
         <v>9</v>
       </c>
-      <c r="E228" t="n">
-        <v>2</v>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5726,8 +6180,10 @@
       <c r="D229" t="n">
         <v>7</v>
       </c>
-      <c r="E229" t="n">
-        <v>3</v>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5749,8 +6205,10 @@
       <c r="D230" t="n">
         <v>6</v>
       </c>
-      <c r="E230" t="n">
-        <v>1</v>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5772,8 +6230,10 @@
       <c r="D231" t="n">
         <v>8</v>
       </c>
-      <c r="E231" t="n">
-        <v>2</v>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5795,8 +6255,10 @@
       <c r="D232" t="n">
         <v>9</v>
       </c>
-      <c r="E232" t="n">
-        <v>2</v>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5818,8 +6280,10 @@
       <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="n">
-        <v>3</v>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5841,8 +6305,10 @@
       <c r="D234" t="n">
         <v>8</v>
       </c>
-      <c r="E234" t="n">
-        <v>3</v>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5864,8 +6330,10 @@
       <c r="D235" t="n">
         <v>6</v>
       </c>
-      <c r="E235" t="n">
-        <v>2</v>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -5887,8 +6355,10 @@
       <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" t="n">
-        <v>3</v>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -5910,8 +6380,10 @@
       <c r="D237" t="n">
         <v>6</v>
       </c>
-      <c r="E237" t="n">
-        <v>1</v>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -5933,8 +6405,10 @@
       <c r="D238" t="n">
         <v>6</v>
       </c>
-      <c r="E238" t="n">
-        <v>3</v>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -5956,8 +6430,10 @@
       <c r="D239" t="n">
         <v>9</v>
       </c>
-      <c r="E239" t="n">
-        <v>2</v>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -5979,8 +6455,10 @@
       <c r="D240" t="n">
         <v>7</v>
       </c>
-      <c r="E240" t="n">
-        <v>4</v>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6002,8 +6480,10 @@
       <c r="D241" t="n">
         <v>8</v>
       </c>
-      <c r="E241" t="n">
-        <v>1</v>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -6025,8 +6505,10 @@
       <c r="D242" t="n">
         <v>8</v>
       </c>
-      <c r="E242" t="n">
-        <v>8</v>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -6048,8 +6530,10 @@
       <c r="D243" t="n">
         <v>6</v>
       </c>
-      <c r="E243" t="n">
-        <v>3</v>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -6071,8 +6555,10 @@
       <c r="D244" t="n">
         <v>5</v>
       </c>
-      <c r="E244" t="n">
-        <v>2</v>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -6094,8 +6580,10 @@
       <c r="D245" t="n">
         <v>6</v>
       </c>
-      <c r="E245" t="n">
-        <v>2</v>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -6117,8 +6605,10 @@
       <c r="D246" t="n">
         <v>7</v>
       </c>
-      <c r="E246" t="n">
-        <v>2</v>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -6140,8 +6630,10 @@
       <c r="D247" t="n">
         <v>8</v>
       </c>
-      <c r="E247" t="n">
-        <v>2</v>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -6163,8 +6655,10 @@
       <c r="D248" t="n">
         <v>9</v>
       </c>
-      <c r="E248" t="n">
-        <v>2</v>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -6186,8 +6680,10 @@
       <c r="D249" t="n">
         <v>6</v>
       </c>
-      <c r="E249" t="n">
-        <v>2</v>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -6209,8 +6705,10 @@
       <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="n">
-        <v>9</v>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6232,8 +6730,10 @@
       <c r="D251" t="n">
         <v>6</v>
       </c>
-      <c r="E251" t="n">
-        <v>2</v>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -6255,8 +6755,10 @@
       <c r="D252" t="n">
         <v>6</v>
       </c>
-      <c r="E252" t="n">
-        <v>3</v>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -6278,8 +6780,10 @@
       <c r="D253" t="n">
         <v>8</v>
       </c>
-      <c r="E253" t="n">
-        <v>2</v>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6301,8 +6805,10 @@
       <c r="D254" t="n">
         <v>7</v>
       </c>
-      <c r="E254" t="n">
-        <v>2</v>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6324,8 +6830,10 @@
       <c r="D255" t="n">
         <v>6</v>
       </c>
-      <c r="E255" t="n">
-        <v>1</v>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6347,8 +6855,10 @@
       <c r="D256" t="n">
         <v>8</v>
       </c>
-      <c r="E256" t="n">
-        <v>2</v>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6370,8 +6880,10 @@
       <c r="D257" t="n">
         <v>7</v>
       </c>
-      <c r="E257" t="n">
-        <v>2</v>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6393,8 +6905,10 @@
       <c r="D258" t="n">
         <v>8</v>
       </c>
-      <c r="E258" t="n">
-        <v>2</v>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6416,8 +6930,10 @@
       <c r="D259" t="n">
         <v>6</v>
       </c>
-      <c r="E259" t="n">
-        <v>3</v>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6439,8 +6955,10 @@
       <c r="D260" t="n">
         <v>6</v>
       </c>
-      <c r="E260" t="n">
-        <v>2</v>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6462,8 +6980,10 @@
       <c r="D261" t="n">
         <v>7</v>
       </c>
-      <c r="E261" t="n">
-        <v>1</v>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6485,8 +7005,10 @@
       <c r="D262" t="n">
         <v>9</v>
       </c>
-      <c r="E262" t="n">
-        <v>3</v>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6508,8 +7030,10 @@
       <c r="D263" t="n">
         <v>7</v>
       </c>
-      <c r="E263" t="n">
-        <v>1</v>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6531,8 +7055,10 @@
       <c r="D264" t="n">
         <v>8</v>
       </c>
-      <c r="E264" t="n">
-        <v>1</v>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6554,8 +7080,10 @@
       <c r="D265" t="n">
         <v>6</v>
       </c>
-      <c r="E265" t="n">
-        <v>1</v>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6577,8 +7105,10 @@
       <c r="D266" t="n">
         <v>6</v>
       </c>
-      <c r="E266" t="n">
-        <v>1</v>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6600,8 +7130,10 @@
       <c r="D267" t="n">
         <v>9</v>
       </c>
-      <c r="E267" t="n">
-        <v>2</v>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6623,8 +7155,10 @@
       <c r="D268" t="n">
         <v>7</v>
       </c>
-      <c r="E268" t="n">
-        <v>1</v>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6646,8 +7180,10 @@
       <c r="D269" t="n">
         <v>9</v>
       </c>
-      <c r="E269" t="n">
-        <v>3</v>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6669,8 +7205,10 @@
       <c r="D270" t="n">
         <v>5</v>
       </c>
-      <c r="E270" t="n">
-        <v>2</v>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6692,8 +7230,10 @@
       <c r="D271" t="n">
         <v>8</v>
       </c>
-      <c r="E271" t="n">
-        <v>2</v>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6715,8 +7255,10 @@
       <c r="D272" t="n">
         <v>9</v>
       </c>
-      <c r="E272" t="n">
-        <v>3</v>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6738,8 +7280,10 @@
       <c r="D273" t="n">
         <v>9</v>
       </c>
-      <c r="E273" t="n">
-        <v>3</v>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6761,8 +7305,10 @@
       <c r="D274" t="n">
         <v>9</v>
       </c>
-      <c r="E274" t="n">
-        <v>2</v>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6784,8 +7330,10 @@
       <c r="D275" t="n">
         <v>6</v>
       </c>
-      <c r="E275" t="n">
-        <v>3</v>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6807,8 +7355,10 @@
       <c r="D276" t="n">
         <v>9</v>
       </c>
-      <c r="E276" t="n">
-        <v>2</v>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6830,8 +7380,10 @@
       <c r="D277" t="n">
         <v>9</v>
       </c>
-      <c r="E277" t="n">
-        <v>1</v>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -6853,8 +7405,10 @@
       <c r="D278" t="n">
         <v>9</v>
       </c>
-      <c r="E278" t="n">
-        <v>3</v>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -6876,8 +7430,10 @@
       <c r="D279" t="n">
         <v>9</v>
       </c>
-      <c r="E279" t="n">
-        <v>10</v>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -6899,8 +7455,10 @@
       <c r="D280" t="n">
         <v>9</v>
       </c>
-      <c r="E280" t="n">
-        <v>3</v>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -6922,8 +7480,10 @@
       <c r="D281" t="n">
         <v>6</v>
       </c>
-      <c r="E281" t="n">
-        <v>2</v>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -6945,8 +7505,10 @@
       <c r="D282" t="n">
         <v>8</v>
       </c>
-      <c r="E282" t="n">
-        <v>2</v>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -6968,8 +7530,10 @@
       <c r="D283" t="n">
         <v>7</v>
       </c>
-      <c r="E283" t="n">
-        <v>2</v>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -6991,8 +7555,10 @@
       <c r="D284" t="n">
         <v>8</v>
       </c>
-      <c r="E284" t="n">
-        <v>3</v>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -7014,8 +7580,10 @@
       <c r="D285" t="n">
         <v>6</v>
       </c>
-      <c r="E285" t="n">
-        <v>3</v>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -7037,8 +7605,10 @@
       <c r="D286" t="n">
         <v>8</v>
       </c>
-      <c r="E286" t="n">
-        <v>3</v>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -7060,8 +7630,10 @@
       <c r="D287" t="n">
         <v>6</v>
       </c>
-      <c r="E287" t="n">
-        <v>3</v>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -7083,8 +7655,10 @@
       <c r="D288" t="n">
         <v>9</v>
       </c>
-      <c r="E288" t="n">
-        <v>2</v>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -7106,8 +7680,10 @@
       <c r="D289" t="n">
         <v>8</v>
       </c>
-      <c r="E289" t="n">
-        <v>2</v>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -7129,8 +7705,10 @@
       <c r="D290" t="n">
         <v>6</v>
       </c>
-      <c r="E290" t="n">
-        <v>2</v>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7152,8 +7730,10 @@
       <c r="D291" t="n">
         <v>9</v>
       </c>
-      <c r="E291" t="n">
-        <v>2</v>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7175,8 +7755,10 @@
       <c r="D292" t="n">
         <v>7</v>
       </c>
-      <c r="E292" t="n">
-        <v>3</v>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7198,8 +7780,10 @@
       <c r="D293" t="n">
         <v>8</v>
       </c>
-      <c r="E293" t="n">
-        <v>1</v>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7221,8 +7805,10 @@
       <c r="D294" t="n">
         <v>9</v>
       </c>
-      <c r="E294" t="n">
-        <v>2</v>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7244,8 +7830,10 @@
       <c r="D295" t="n">
         <v>9</v>
       </c>
-      <c r="E295" t="n">
-        <v>2</v>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7267,8 +7855,10 @@
       <c r="D296" t="n">
         <v>9</v>
       </c>
-      <c r="E296" t="n">
-        <v>2</v>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -7290,8 +7880,10 @@
       <c r="D297" t="n">
         <v>9</v>
       </c>
-      <c r="E297" t="n">
-        <v>4</v>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -7313,8 +7905,10 @@
       <c r="D298" t="n">
         <v>9</v>
       </c>
-      <c r="E298" t="n">
-        <v>4</v>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7336,8 +7930,10 @@
       <c r="D299" t="n">
         <v>9</v>
       </c>
-      <c r="E299" t="n">
-        <v>3</v>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7359,8 +7955,10 @@
       <c r="D300" t="n">
         <v>9</v>
       </c>
-      <c r="E300" t="n">
-        <v>2</v>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7382,8 +7980,10 @@
       <c r="D301" t="n">
         <v>8</v>
       </c>
-      <c r="E301" t="n">
-        <v>3</v>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7405,8 +8005,10 @@
       <c r="D302" t="n">
         <v>8</v>
       </c>
-      <c r="E302" t="n">
-        <v>3</v>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7428,8 +8030,10 @@
       <c r="D303" t="n">
         <v>6</v>
       </c>
-      <c r="E303" t="n">
-        <v>2</v>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7451,8 +8055,10 @@
       <c r="D304" t="n">
         <v>6</v>
       </c>
-      <c r="E304" t="n">
-        <v>3</v>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -7474,8 +8080,10 @@
       <c r="D305" t="n">
         <v>7</v>
       </c>
-      <c r="E305" t="n">
-        <v>1</v>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7497,8 +8105,10 @@
       <c r="D306" t="n">
         <v>8</v>
       </c>
-      <c r="E306" t="n">
-        <v>2</v>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7520,8 +8130,10 @@
       <c r="D307" t="n">
         <v>9</v>
       </c>
-      <c r="E307" t="n">
-        <v>3</v>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7543,8 +8155,10 @@
       <c r="D308" t="n">
         <v>7</v>
       </c>
-      <c r="E308" t="n">
-        <v>2</v>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7566,8 +8180,10 @@
       <c r="D309" t="n">
         <v>7</v>
       </c>
-      <c r="E309" t="n">
-        <v>1</v>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7589,8 +8205,10 @@
       <c r="D310" t="n">
         <v>8</v>
       </c>
-      <c r="E310" t="n">
-        <v>1</v>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -7612,8 +8230,10 @@
       <c r="D311" t="n">
         <v>7</v>
       </c>
-      <c r="E311" t="n">
-        <v>1</v>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -7635,8 +8255,10 @@
       <c r="D312" t="n">
         <v>9</v>
       </c>
-      <c r="E312" t="n">
-        <v>4</v>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -7658,8 +8280,10 @@
       <c r="D313" t="n">
         <v>9</v>
       </c>
-      <c r="E313" t="n">
-        <v>5</v>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -7681,8 +8305,10 @@
       <c r="D314" t="n">
         <v>7</v>
       </c>
-      <c r="E314" t="n">
-        <v>1</v>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -7704,8 +8330,10 @@
       <c r="D315" t="n">
         <v>7</v>
       </c>
-      <c r="E315" t="n">
-        <v>1</v>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -7727,8 +8355,10 @@
       <c r="D316" t="n">
         <v>7</v>
       </c>
-      <c r="E316" t="n">
-        <v>0</v>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -7750,8 +8380,10 @@
       <c r="D317" t="n">
         <v>8</v>
       </c>
-      <c r="E317" t="n">
-        <v>0</v>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -7773,8 +8405,10 @@
       <c r="D318" t="n">
         <v>6</v>
       </c>
-      <c r="E318" t="n">
-        <v>1</v>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -7796,8 +8430,10 @@
       <c r="D319" t="n">
         <v>7</v>
       </c>
-      <c r="E319" t="n">
-        <v>0</v>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -7819,8 +8455,10 @@
       <c r="D320" t="n">
         <v>9</v>
       </c>
-      <c r="E320" t="n">
-        <v>0</v>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -7842,8 +8480,10 @@
       <c r="D321" t="n">
         <v>7</v>
       </c>
-      <c r="E321" t="n">
-        <v>1</v>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -7865,8 +8505,10 @@
       <c r="D322" t="n">
         <v>7</v>
       </c>
-      <c r="E322" t="n">
-        <v>1</v>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -7888,8 +8530,10 @@
       <c r="D323" t="n">
         <v>8</v>
       </c>
-      <c r="E323" t="n">
-        <v>1</v>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -7911,8 +8555,10 @@
       <c r="D324" t="n">
         <v>8</v>
       </c>
-      <c r="E324" t="n">
-        <v>0</v>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -7934,8 +8580,10 @@
       <c r="D325" t="n">
         <v>9</v>
       </c>
-      <c r="E325" t="n">
-        <v>1</v>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -7957,8 +8605,10 @@
       <c r="D326" t="n">
         <v>9</v>
       </c>
-      <c r="E326" t="n">
-        <v>1</v>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -7980,8 +8630,10 @@
       <c r="D327" t="n">
         <v>6</v>
       </c>
-      <c r="E327" t="n">
-        <v>0</v>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -8003,8 +8655,10 @@
       <c r="D328" t="n">
         <v>6</v>
       </c>
-      <c r="E328" t="n">
-        <v>1</v>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -8026,8 +8680,10 @@
       <c r="D329" t="n">
         <v>9</v>
       </c>
-      <c r="E329" t="n">
-        <v>0</v>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -8049,8 +8705,10 @@
       <c r="D330" t="n">
         <v>8</v>
       </c>
-      <c r="E330" t="n">
-        <v>1</v>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -8072,8 +8730,10 @@
       <c r="D331" t="n">
         <v>6</v>
       </c>
-      <c r="E331" t="n">
-        <v>0</v>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -8095,8 +8755,10 @@
       <c r="D332" t="n">
         <v>7</v>
       </c>
-      <c r="E332" t="n">
-        <v>1</v>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -8118,8 +8780,10 @@
       <c r="D333" t="n">
         <v>7</v>
       </c>
-      <c r="E333" t="n">
-        <v>0</v>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -8141,8 +8805,10 @@
       <c r="D334" t="n">
         <v>7</v>
       </c>
-      <c r="E334" t="n">
-        <v>0</v>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -8164,8 +8830,10 @@
       <c r="D335" t="n">
         <v>9</v>
       </c>
-      <c r="E335" t="n">
-        <v>0</v>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -8187,8 +8855,10 @@
       <c r="D336" t="n">
         <v>7</v>
       </c>
-      <c r="E336" t="n">
-        <v>1</v>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -8210,8 +8880,10 @@
       <c r="D337" t="n">
         <v>7</v>
       </c>
-      <c r="E337" t="n">
-        <v>1</v>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -8233,8 +8905,10 @@
       <c r="D338" t="n">
         <v>7</v>
       </c>
-      <c r="E338" t="n">
-        <v>1</v>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -8256,8 +8930,10 @@
       <c r="D339" t="n">
         <v>6</v>
       </c>
-      <c r="E339" t="n">
-        <v>1</v>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -8279,8 +8955,10 @@
       <c r="D340" t="n">
         <v>9</v>
       </c>
-      <c r="E340" t="n">
-        <v>0</v>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -8302,8 +8980,10 @@
       <c r="D341" t="n">
         <v>8</v>
       </c>
-      <c r="E341" t="n">
-        <v>1</v>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -8325,8 +9005,10 @@
       <c r="D342" t="n">
         <v>7</v>
       </c>
-      <c r="E342" t="n">
-        <v>0</v>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -8348,8 +9030,10 @@
       <c r="D343" t="n">
         <v>8</v>
       </c>
-      <c r="E343" t="n">
-        <v>1</v>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -8371,8 +9055,10 @@
       <c r="D344" t="n">
         <v>8</v>
       </c>
-      <c r="E344" t="n">
-        <v>1</v>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -8394,8 +9080,10 @@
       <c r="D345" t="n">
         <v>9</v>
       </c>
-      <c r="E345" t="n">
-        <v>0</v>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -8417,8 +9105,10 @@
       <c r="D346" t="n">
         <v>9</v>
       </c>
-      <c r="E346" t="n">
-        <v>1</v>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -8440,8 +9130,10 @@
       <c r="D347" t="n">
         <v>6</v>
       </c>
-      <c r="E347" t="n">
-        <v>0</v>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -8463,8 +9155,10 @@
       <c r="D348" t="n">
         <v>9</v>
       </c>
-      <c r="E348" t="n">
-        <v>1</v>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -8486,8 +9180,10 @@
       <c r="D349" t="n">
         <v>8</v>
       </c>
-      <c r="E349" t="n">
-        <v>1</v>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -8509,8 +9205,10 @@
       <c r="D350" t="n">
         <v>9</v>
       </c>
-      <c r="E350" t="n">
-        <v>0</v>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -8532,8 +9230,10 @@
       <c r="D351" t="n">
         <v>8</v>
       </c>
-      <c r="E351" t="n">
-        <v>1</v>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -8555,8 +9255,10 @@
       <c r="D352" t="n">
         <v>7</v>
       </c>
-      <c r="E352" t="n">
-        <v>1</v>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -8578,8 +9280,10 @@
       <c r="D353" t="n">
         <v>9</v>
       </c>
-      <c r="E353" t="n">
-        <v>1</v>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -8601,8 +9305,10 @@
       <c r="D354" t="n">
         <v>9</v>
       </c>
-      <c r="E354" t="n">
-        <v>1</v>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -8624,8 +9330,10 @@
       <c r="D355" t="n">
         <v>8</v>
       </c>
-      <c r="E355" t="n">
-        <v>1</v>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -8647,8 +9355,10 @@
       <c r="D356" t="n">
         <v>9</v>
       </c>
-      <c r="E356" t="n">
-        <v>0</v>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -8670,8 +9380,10 @@
       <c r="D357" t="n">
         <v>9</v>
       </c>
-      <c r="E357" t="n">
-        <v>1</v>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -8693,8 +9405,10 @@
       <c r="D358" t="n">
         <v>9</v>
       </c>
-      <c r="E358" t="n">
-        <v>1</v>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -8716,8 +9430,10 @@
       <c r="D359" t="n">
         <v>9</v>
       </c>
-      <c r="E359" t="n">
-        <v>1</v>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -8739,8 +9455,10 @@
       <c r="D360" t="n">
         <v>9</v>
       </c>
-      <c r="E360" t="n">
-        <v>1</v>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -8762,8 +9480,10 @@
       <c r="D361" t="n">
         <v>9</v>
       </c>
-      <c r="E361" t="n">
-        <v>1</v>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -8785,8 +9505,10 @@
       <c r="D362" t="n">
         <v>7</v>
       </c>
-      <c r="E362" t="n">
-        <v>1</v>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -8808,8 +9530,10 @@
       <c r="D363" t="n">
         <v>7</v>
       </c>
-      <c r="E363" t="n">
-        <v>0</v>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -8831,8 +9555,10 @@
       <c r="D364" t="n">
         <v>9</v>
       </c>
-      <c r="E364" t="n">
-        <v>1</v>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -8854,8 +9580,10 @@
       <c r="D365" t="n">
         <v>8</v>
       </c>
-      <c r="E365" t="n">
-        <v>0</v>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -8877,8 +9605,10 @@
       <c r="D366" t="n">
         <v>6</v>
       </c>
-      <c r="E366" t="n">
-        <v>0</v>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -8900,8 +9630,10 @@
       <c r="D367" t="n">
         <v>7</v>
       </c>
-      <c r="E367" t="n">
-        <v>0</v>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -8923,8 +9655,10 @@
       <c r="D368" t="n">
         <v>9</v>
       </c>
-      <c r="E368" t="n">
-        <v>1</v>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -8946,8 +9680,10 @@
       <c r="D369" t="n">
         <v>9</v>
       </c>
-      <c r="E369" t="n">
-        <v>0</v>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -8969,8 +9705,10 @@
       <c r="D370" t="n">
         <v>8</v>
       </c>
-      <c r="E370" t="n">
-        <v>1</v>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -8992,8 +9730,10 @@
       <c r="D371" t="n">
         <v>6</v>
       </c>
-      <c r="E371" t="n">
-        <v>0</v>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -9015,8 +9755,10 @@
       <c r="D372" t="n">
         <v>9</v>
       </c>
-      <c r="E372" t="n">
-        <v>0</v>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -9038,8 +9780,10 @@
       <c r="D373" t="n">
         <v>6</v>
       </c>
-      <c r="E373" t="n">
-        <v>0</v>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -9061,8 +9805,10 @@
       <c r="D374" t="n">
         <v>9</v>
       </c>
-      <c r="E374" t="n">
-        <v>0</v>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -9084,8 +9830,10 @@
       <c r="D375" t="n">
         <v>9</v>
       </c>
-      <c r="E375" t="n">
-        <v>0</v>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -9107,8 +9855,10 @@
       <c r="D376" t="n">
         <v>9</v>
       </c>
-      <c r="E376" t="n">
-        <v>1</v>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -9130,8 +9880,10 @@
       <c r="D377" t="n">
         <v>9</v>
       </c>
-      <c r="E377" t="n">
-        <v>0</v>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
@@ -9153,8 +9905,10 @@
       <c r="D378" t="n">
         <v>7</v>
       </c>
-      <c r="E378" t="n">
-        <v>1</v>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -9176,8 +9930,10 @@
       <c r="D379" t="n">
         <v>7</v>
       </c>
-      <c r="E379" t="n">
-        <v>1</v>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -9199,8 +9955,10 @@
       <c r="D380" t="n">
         <v>9</v>
       </c>
-      <c r="E380" t="n">
-        <v>1</v>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -9222,8 +9980,10 @@
       <c r="D381" t="n">
         <v>9</v>
       </c>
-      <c r="E381" t="n">
-        <v>1</v>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -9245,8 +10005,10 @@
       <c r="D382" t="n">
         <v>6</v>
       </c>
-      <c r="E382" t="n">
-        <v>1</v>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -9268,8 +10030,10 @@
       <c r="D383" t="n">
         <v>7</v>
       </c>
-      <c r="E383" t="n">
-        <v>1</v>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -9291,8 +10055,10 @@
       <c r="D384" t="n">
         <v>7</v>
       </c>
-      <c r="E384" t="n">
-        <v>0</v>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -9314,8 +10080,10 @@
       <c r="D385" t="n">
         <v>7</v>
       </c>
-      <c r="E385" t="n">
-        <v>1</v>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -9337,8 +10105,10 @@
       <c r="D386" t="n">
         <v>6</v>
       </c>
-      <c r="E386" t="n">
-        <v>1</v>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -9360,8 +10130,10 @@
       <c r="D387" t="n">
         <v>8</v>
       </c>
-      <c r="E387" t="n">
-        <v>1</v>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -9383,8 +10155,10 @@
       <c r="D388" t="n">
         <v>8</v>
       </c>
-      <c r="E388" t="n">
-        <v>1</v>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -9406,8 +10180,10 @@
       <c r="D389" t="n">
         <v>9</v>
       </c>
-      <c r="E389" t="n">
-        <v>0</v>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -9429,8 +10205,10 @@
       <c r="D390" t="n">
         <v>9</v>
       </c>
-      <c r="E390" t="n">
-        <v>0</v>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -9452,8 +10230,10 @@
       <c r="D391" t="n">
         <v>7</v>
       </c>
-      <c r="E391" t="n">
-        <v>1</v>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -9475,8 +10255,10 @@
       <c r="D392" t="n">
         <v>8</v>
       </c>
-      <c r="E392" t="n">
-        <v>1</v>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -9498,8 +10280,10 @@
       <c r="D393" t="n">
         <v>8</v>
       </c>
-      <c r="E393" t="n">
-        <v>1</v>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -9521,8 +10305,10 @@
       <c r="D394" t="n">
         <v>7</v>
       </c>
-      <c r="E394" t="n">
-        <v>0</v>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -9544,8 +10330,10 @@
       <c r="D395" t="n">
         <v>7</v>
       </c>
-      <c r="E395" t="n">
-        <v>1</v>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -9567,8 +10355,10 @@
       <c r="D396" t="n">
         <v>9</v>
       </c>
-      <c r="E396" t="n">
-        <v>1</v>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -9590,8 +10380,10 @@
       <c r="D397" t="n">
         <v>6</v>
       </c>
-      <c r="E397" t="n">
-        <v>1</v>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -9613,8 +10405,10 @@
       <c r="D398" t="n">
         <v>7</v>
       </c>
-      <c r="E398" t="n">
-        <v>0</v>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -9636,8 +10430,10 @@
       <c r="D399" t="n">
         <v>9</v>
       </c>
-      <c r="E399" t="n">
-        <v>1</v>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -9659,8 +10455,10 @@
       <c r="D400" t="n">
         <v>8</v>
       </c>
-      <c r="E400" t="n">
-        <v>1</v>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
@@ -9682,8 +10480,10 @@
       <c r="D401" t="n">
         <v>7</v>
       </c>
-      <c r="E401" t="n">
-        <v>1</v>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -9705,8 +10505,10 @@
       <c r="D402" t="n">
         <v>7</v>
       </c>
-      <c r="E402" t="n">
-        <v>1</v>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
@@ -9728,8 +10530,10 @@
       <c r="D403" t="n">
         <v>9</v>
       </c>
-      <c r="E403" t="n">
-        <v>1</v>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
@@ -9751,8 +10555,10 @@
       <c r="D404" t="n">
         <v>9</v>
       </c>
-      <c r="E404" t="n">
-        <v>0</v>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -9774,8 +10580,10 @@
       <c r="D405" t="n">
         <v>9</v>
       </c>
-      <c r="E405" t="n">
-        <v>1</v>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -9797,8 +10605,10 @@
       <c r="D406" t="n">
         <v>9</v>
       </c>
-      <c r="E406" t="n">
-        <v>1</v>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
@@ -9820,8 +10630,10 @@
       <c r="D407" t="n">
         <v>9</v>
       </c>
-      <c r="E407" t="n">
-        <v>0</v>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -9843,8 +10655,10 @@
       <c r="D408" t="n">
         <v>9</v>
       </c>
-      <c r="E408" t="n">
-        <v>1</v>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -9866,8 +10680,10 @@
       <c r="D409" t="n">
         <v>9</v>
       </c>
-      <c r="E409" t="n">
-        <v>1</v>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
@@ -9889,8 +10705,10 @@
       <c r="D410" t="n">
         <v>9</v>
       </c>
-      <c r="E410" t="n">
-        <v>0</v>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -9912,8 +10730,10 @@
       <c r="D411" t="n">
         <v>8</v>
       </c>
-      <c r="E411" t="n">
-        <v>1</v>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -9935,8 +10755,10 @@
       <c r="D412" t="n">
         <v>8</v>
       </c>
-      <c r="E412" t="n">
-        <v>1</v>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -9958,8 +10780,10 @@
       <c r="D413" t="n">
         <v>7</v>
       </c>
-      <c r="E413" t="n">
-        <v>1</v>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -9981,8 +10805,10 @@
       <c r="D414" t="n">
         <v>9</v>
       </c>
-      <c r="E414" t="n">
-        <v>4</v>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
@@ -10004,8 +10830,10 @@
       <c r="D415" t="n">
         <v>8</v>
       </c>
-      <c r="E415" t="n">
-        <v>4</v>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
@@ -10027,8 +10855,10 @@
       <c r="D416" t="n">
         <v>5</v>
       </c>
-      <c r="E416" t="n">
-        <v>1</v>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
@@ -10050,8 +10880,10 @@
       <c r="D417" t="n">
         <v>4</v>
       </c>
-      <c r="E417" t="n">
-        <v>1</v>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
@@ -10073,8 +10905,10 @@
       <c r="D418" t="n">
         <v>9</v>
       </c>
-      <c r="E418" t="n">
-        <v>4</v>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
@@ -10096,8 +10930,10 @@
       <c r="D419" t="n">
         <v>8</v>
       </c>
-      <c r="E419" t="n">
-        <v>5</v>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -10119,8 +10955,10 @@
       <c r="D420" t="n">
         <v>9</v>
       </c>
-      <c r="E420" t="n">
-        <v>5</v>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -10142,8 +10980,10 @@
       <c r="D421" t="n">
         <v>9</v>
       </c>
-      <c r="E421" t="n">
-        <v>5</v>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -10165,8 +11005,10 @@
       <c r="D422" t="n">
         <v>9</v>
       </c>
-      <c r="E422" t="n">
-        <v>4</v>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -10188,8 +11030,10 @@
       <c r="D423" t="n">
         <v>7</v>
       </c>
-      <c r="E423" t="n">
-        <v>5</v>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -10211,8 +11055,10 @@
       <c r="D424" t="n">
         <v>8</v>
       </c>
-      <c r="E424" t="n">
-        <v>5</v>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -10234,8 +11080,10 @@
       <c r="D425" t="n">
         <v>9</v>
       </c>
-      <c r="E425" t="n">
-        <v>3</v>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -10257,8 +11105,10 @@
       <c r="D426" t="n">
         <v>9</v>
       </c>
-      <c r="E426" t="n">
-        <v>4</v>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
@@ -10280,8 +11130,10 @@
       <c r="D427" t="n">
         <v>9</v>
       </c>
-      <c r="E427" t="n">
-        <v>3</v>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
@@ -10303,8 +11155,10 @@
       <c r="D428" t="n">
         <v>9</v>
       </c>
-      <c r="E428" t="n">
-        <v>3</v>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -10326,8 +11180,10 @@
       <c r="D429" t="n">
         <v>7</v>
       </c>
-      <c r="E429" t="n">
-        <v>3</v>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
@@ -10349,8 +11205,10 @@
       <c r="D430" t="n">
         <v>9</v>
       </c>
-      <c r="E430" t="n">
-        <v>3</v>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
@@ -10372,8 +11230,10 @@
       <c r="D431" t="n">
         <v>7</v>
       </c>
-      <c r="E431" t="n">
-        <v>4</v>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
@@ -10395,8 +11255,10 @@
       <c r="D432" t="n">
         <v>8</v>
       </c>
-      <c r="E432" t="n">
-        <v>4</v>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -10418,8 +11280,10 @@
       <c r="D433" t="n">
         <v>9</v>
       </c>
-      <c r="E433" t="n">
-        <v>4</v>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -10441,8 +11305,10 @@
       <c r="D434" t="n">
         <v>6</v>
       </c>
-      <c r="E434" t="n">
-        <v>3</v>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -10464,8 +11330,10 @@
       <c r="D435" t="n">
         <v>6</v>
       </c>
-      <c r="E435" t="n">
-        <v>5</v>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -10487,8 +11355,10 @@
       <c r="D436" t="n">
         <v>6</v>
       </c>
-      <c r="E436" t="n">
-        <v>5</v>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -10510,8 +11380,10 @@
       <c r="D437" t="n">
         <v>7</v>
       </c>
-      <c r="E437" t="n">
-        <v>3</v>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -10533,8 +11405,10 @@
       <c r="D438" t="n">
         <v>7</v>
       </c>
-      <c r="E438" t="n">
-        <v>5</v>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -10556,8 +11430,10 @@
       <c r="D439" t="n">
         <v>8</v>
       </c>
-      <c r="E439" t="n">
-        <v>5</v>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -10579,8 +11455,10 @@
       <c r="D440" t="n">
         <v>8</v>
       </c>
-      <c r="E440" t="n">
-        <v>3</v>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -10602,8 +11480,10 @@
       <c r="D441" t="n">
         <v>9</v>
       </c>
-      <c r="E441" t="n">
-        <v>5</v>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
@@ -10625,8 +11505,10 @@
       <c r="D442" t="n">
         <v>9</v>
       </c>
-      <c r="E442" t="n">
-        <v>3</v>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -10648,8 +11530,10 @@
       <c r="D443" t="n">
         <v>8</v>
       </c>
-      <c r="E443" t="n">
-        <v>3</v>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
@@ -10671,8 +11555,10 @@
       <c r="D444" t="n">
         <v>9</v>
       </c>
-      <c r="E444" t="n">
-        <v>4</v>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -10694,8 +11580,10 @@
       <c r="D445" t="n">
         <v>9</v>
       </c>
-      <c r="E445" t="n">
-        <v>3</v>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
@@ -10717,8 +11605,10 @@
       <c r="D446" t="n">
         <v>9</v>
       </c>
-      <c r="E446" t="n">
-        <v>3</v>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -10740,8 +11630,10 @@
       <c r="D447" t="n">
         <v>9</v>
       </c>
-      <c r="E447" t="n">
-        <v>3</v>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -10763,8 +11655,10 @@
       <c r="D448" t="n">
         <v>7</v>
       </c>
-      <c r="E448" t="n">
-        <v>5</v>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
@@ -10786,8 +11680,10 @@
       <c r="D449" t="n">
         <v>8</v>
       </c>
-      <c r="E449" t="n">
-        <v>5</v>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -10809,8 +11705,10 @@
       <c r="D450" t="n">
         <v>9</v>
       </c>
-      <c r="E450" t="n">
-        <v>3</v>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F450" t="inlineStr">
         <is>
@@ -10832,8 +11730,10 @@
       <c r="D451" t="n">
         <v>9</v>
       </c>
-      <c r="E451" t="n">
-        <v>5</v>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
@@ -10855,8 +11755,10 @@
       <c r="D452" t="n">
         <v>8</v>
       </c>
-      <c r="E452" t="n">
-        <v>4</v>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -10878,8 +11780,10 @@
       <c r="D453" t="n">
         <v>9</v>
       </c>
-      <c r="E453" t="n">
-        <v>4</v>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
@@ -10901,8 +11805,10 @@
       <c r="D454" t="n">
         <v>6</v>
       </c>
-      <c r="E454" t="n">
-        <v>4</v>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -10924,8 +11830,10 @@
       <c r="D455" t="n">
         <v>9</v>
       </c>
-      <c r="E455" t="n">
-        <v>4</v>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -10947,8 +11855,10 @@
       <c r="D456" t="n">
         <v>9</v>
       </c>
-      <c r="E456" t="n">
-        <v>4</v>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -10970,8 +11880,10 @@
       <c r="D457" t="n">
         <v>6</v>
       </c>
-      <c r="E457" t="n">
-        <v>4</v>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -10993,8 +11905,10 @@
       <c r="D458" t="n">
         <v>9</v>
       </c>
-      <c r="E458" t="n">
-        <v>5</v>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -11016,8 +11930,10 @@
       <c r="D459" t="n">
         <v>6</v>
       </c>
-      <c r="E459" t="n">
-        <v>4</v>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -11039,8 +11955,10 @@
       <c r="D460" t="n">
         <v>9</v>
       </c>
-      <c r="E460" t="n">
-        <v>3</v>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -11062,8 +11980,10 @@
       <c r="D461" t="n">
         <v>9</v>
       </c>
-      <c r="E461" t="n">
-        <v>4</v>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -11085,8 +12005,10 @@
       <c r="D462" t="n">
         <v>6</v>
       </c>
-      <c r="E462" t="n">
-        <v>4</v>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -11108,8 +12030,10 @@
       <c r="D463" t="n">
         <v>8</v>
       </c>
-      <c r="E463" t="n">
-        <v>3</v>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -11131,8 +12055,10 @@
       <c r="D464" t="n">
         <v>8</v>
       </c>
-      <c r="E464" t="n">
-        <v>3</v>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
@@ -11154,8 +12080,10 @@
       <c r="D465" t="n">
         <v>7</v>
       </c>
-      <c r="E465" t="n">
-        <v>4</v>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -11177,8 +12105,10 @@
       <c r="D466" t="n">
         <v>6</v>
       </c>
-      <c r="E466" t="n">
-        <v>3</v>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -11200,8 +12130,10 @@
       <c r="D467" t="n">
         <v>8</v>
       </c>
-      <c r="E467" t="n">
-        <v>5</v>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -11223,8 +12155,10 @@
       <c r="D468" t="n">
         <v>9</v>
       </c>
-      <c r="E468" t="n">
-        <v>4</v>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -11246,8 +12180,10 @@
       <c r="D469" t="n">
         <v>8</v>
       </c>
-      <c r="E469" t="n">
-        <v>4</v>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -11269,8 +12205,10 @@
       <c r="D470" t="n">
         <v>9</v>
       </c>
-      <c r="E470" t="n">
-        <v>5</v>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -11292,8 +12230,10 @@
       <c r="D471" t="n">
         <v>9</v>
       </c>
-      <c r="E471" t="n">
-        <v>5</v>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -11315,8 +12255,10 @@
       <c r="D472" t="n">
         <v>6</v>
       </c>
-      <c r="E472" t="n">
-        <v>3</v>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -11338,8 +12280,10 @@
       <c r="D473" t="n">
         <v>9</v>
       </c>
-      <c r="E473" t="n">
-        <v>5</v>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -11361,8 +12305,10 @@
       <c r="D474" t="n">
         <v>7</v>
       </c>
-      <c r="E474" t="n">
-        <v>5</v>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -11384,8 +12330,10 @@
       <c r="D475" t="n">
         <v>8</v>
       </c>
-      <c r="E475" t="n">
-        <v>4</v>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -11407,8 +12355,10 @@
       <c r="D476" t="n">
         <v>8</v>
       </c>
-      <c r="E476" t="n">
-        <v>4</v>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
@@ -11430,8 +12380,10 @@
       <c r="D477" t="n">
         <v>9</v>
       </c>
-      <c r="E477" t="n">
-        <v>3</v>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -11453,8 +12405,10 @@
       <c r="D478" t="n">
         <v>9</v>
       </c>
-      <c r="E478" t="n">
-        <v>4</v>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -11476,8 +12430,10 @@
       <c r="D479" t="n">
         <v>8</v>
       </c>
-      <c r="E479" t="n">
-        <v>4</v>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
@@ -11499,8 +12455,10 @@
       <c r="D480" t="n">
         <v>6</v>
       </c>
-      <c r="E480" t="n">
-        <v>4</v>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
@@ -11522,8 +12480,10 @@
       <c r="D481" t="n">
         <v>9</v>
       </c>
-      <c r="E481" t="n">
-        <v>3</v>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -11545,8 +12505,10 @@
       <c r="D482" t="n">
         <v>8</v>
       </c>
-      <c r="E482" t="n">
-        <v>5</v>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -11568,8 +12530,10 @@
       <c r="D483" t="n">
         <v>9</v>
       </c>
-      <c r="E483" t="n">
-        <v>4</v>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -11591,8 +12555,10 @@
       <c r="D484" t="n">
         <v>6</v>
       </c>
-      <c r="E484" t="n">
-        <v>5</v>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -11614,8 +12580,10 @@
       <c r="D485" t="n">
         <v>6</v>
       </c>
-      <c r="E485" t="n">
-        <v>3</v>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -11637,8 +12605,10 @@
       <c r="D486" t="n">
         <v>9</v>
       </c>
-      <c r="E486" t="n">
-        <v>4</v>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -11660,8 +12630,10 @@
       <c r="D487" t="n">
         <v>6</v>
       </c>
-      <c r="E487" t="n">
-        <v>5</v>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -11683,8 +12655,10 @@
       <c r="D488" t="n">
         <v>9</v>
       </c>
-      <c r="E488" t="n">
-        <v>3</v>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
@@ -11706,8 +12680,10 @@
       <c r="D489" t="n">
         <v>7</v>
       </c>
-      <c r="E489" t="n">
-        <v>5</v>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -11729,8 +12705,10 @@
       <c r="D490" t="n">
         <v>9</v>
       </c>
-      <c r="E490" t="n">
-        <v>4</v>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -11752,8 +12730,10 @@
       <c r="D491" t="n">
         <v>9</v>
       </c>
-      <c r="E491" t="n">
-        <v>4</v>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -11775,8 +12755,10 @@
       <c r="D492" t="n">
         <v>7</v>
       </c>
-      <c r="E492" t="n">
-        <v>3</v>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -11798,8 +12780,10 @@
       <c r="D493" t="n">
         <v>9</v>
       </c>
-      <c r="E493" t="n">
-        <v>4</v>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -11821,8 +12805,10 @@
       <c r="D494" t="n">
         <v>9</v>
       </c>
-      <c r="E494" t="n">
-        <v>3</v>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
@@ -11844,8 +12830,10 @@
       <c r="D495" t="n">
         <v>6</v>
       </c>
-      <c r="E495" t="n">
-        <v>4</v>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
@@ -11867,8 +12855,10 @@
       <c r="D496" t="n">
         <v>6</v>
       </c>
-      <c r="E496" t="n">
-        <v>4</v>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -11890,8 +12880,10 @@
       <c r="D497" t="n">
         <v>6</v>
       </c>
-      <c r="E497" t="n">
-        <v>4</v>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
@@ -11913,8 +12905,10 @@
       <c r="D498" t="n">
         <v>7</v>
       </c>
-      <c r="E498" t="n">
-        <v>5</v>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -11936,8 +12930,10 @@
       <c r="D499" t="n">
         <v>9</v>
       </c>
-      <c r="E499" t="n">
-        <v>5</v>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -11959,8 +12955,10 @@
       <c r="D500" t="n">
         <v>9</v>
       </c>
-      <c r="E500" t="n">
-        <v>3</v>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -11982,8 +12980,10 @@
       <c r="D501" t="n">
         <v>8</v>
       </c>
-      <c r="E501" t="n">
-        <v>5</v>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -12005,8 +13005,10 @@
       <c r="D502" t="n">
         <v>8</v>
       </c>
-      <c r="E502" t="n">
-        <v>3</v>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -12028,8 +13030,10 @@
       <c r="D503" t="n">
         <v>9</v>
       </c>
-      <c r="E503" t="n">
-        <v>3</v>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -12051,8 +13055,10 @@
       <c r="D504" t="n">
         <v>9</v>
       </c>
-      <c r="E504" t="n">
-        <v>2</v>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -12074,8 +13080,10 @@
       <c r="D505" t="n">
         <v>9</v>
       </c>
-      <c r="E505" t="n">
-        <v>3</v>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -12097,8 +13105,10 @@
       <c r="D506" t="n">
         <v>9</v>
       </c>
-      <c r="E506" t="n">
-        <v>3</v>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -12120,8 +13130,10 @@
       <c r="D507" t="n">
         <v>9</v>
       </c>
-      <c r="E507" t="n">
-        <v>4</v>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -12143,8 +13155,10 @@
       <c r="D508" t="n">
         <v>6</v>
       </c>
-      <c r="E508" t="n">
-        <v>4</v>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -12166,8 +13180,10 @@
       <c r="D509" t="n">
         <v>7</v>
       </c>
-      <c r="E509" t="n">
-        <v>3</v>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -12189,8 +13205,10 @@
       <c r="D510" t="n">
         <v>8</v>
       </c>
-      <c r="E510" t="n">
-        <v>4</v>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -12212,8 +13230,10 @@
       <c r="D511" t="n">
         <v>7</v>
       </c>
-      <c r="E511" t="n">
-        <v>3</v>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -12235,8 +13255,10 @@
       <c r="D512" t="n">
         <v>8</v>
       </c>
-      <c r="E512" t="n">
-        <v>3</v>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -12258,8 +13280,10 @@
       <c r="D513" t="n">
         <v>8</v>
       </c>
-      <c r="E513" t="n">
-        <v>5</v>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -12281,8 +13305,10 @@
       <c r="D514" t="n">
         <v>9</v>
       </c>
-      <c r="E514" t="n">
-        <v>5</v>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -12304,8 +13330,10 @@
       <c r="D515" t="n">
         <v>9</v>
       </c>
-      <c r="E515" t="n">
-        <v>5</v>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -12327,8 +13355,10 @@
       <c r="D516" t="n">
         <v>9</v>
       </c>
-      <c r="E516" t="n">
-        <v>4</v>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F516" t="inlineStr">
         <is>
@@ -12350,8 +13380,10 @@
       <c r="D517" t="n">
         <v>8</v>
       </c>
-      <c r="E517" t="n">
-        <v>4</v>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F517" t="inlineStr">
         <is>
@@ -12373,8 +13405,10 @@
       <c r="D518" t="n">
         <v>7</v>
       </c>
-      <c r="E518" t="n">
-        <v>3</v>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
@@ -12396,8 +13430,10 @@
       <c r="D519" t="n">
         <v>8</v>
       </c>
-      <c r="E519" t="n">
-        <v>1</v>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -12419,8 +13455,10 @@
       <c r="D520" t="n">
         <v>7</v>
       </c>
-      <c r="E520" t="n">
-        <v>3</v>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -12442,8 +13480,10 @@
       <c r="D521" t="n">
         <v>9</v>
       </c>
-      <c r="E521" t="n">
-        <v>2</v>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
@@ -12465,8 +13505,10 @@
       <c r="D522" t="n">
         <v>6</v>
       </c>
-      <c r="E522" t="n">
-        <v>2</v>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
@@ -12488,8 +13530,10 @@
       <c r="D523" t="n">
         <v>4</v>
       </c>
-      <c r="E523" t="n">
-        <v>1</v>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -12511,8 +13555,10 @@
       <c r="D524" t="n">
         <v>9</v>
       </c>
-      <c r="E524" t="n">
-        <v>2</v>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -12534,8 +13580,10 @@
       <c r="D525" t="n">
         <v>4</v>
       </c>
-      <c r="E525" t="n">
-        <v>1</v>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -12557,8 +13605,10 @@
       <c r="D526" t="n">
         <v>9</v>
       </c>
-      <c r="E526" t="n">
-        <v>3</v>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -12580,8 +13630,10 @@
       <c r="D527" t="n">
         <v>6</v>
       </c>
-      <c r="E527" t="n">
-        <v>0</v>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -12603,8 +13655,10 @@
       <c r="D528" t="n">
         <v>6</v>
       </c>
-      <c r="E528" t="n">
-        <v>2</v>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F528" t="inlineStr">
         <is>
@@ -12626,8 +13680,10 @@
       <c r="D529" t="n">
         <v>1</v>
       </c>
-      <c r="E529" t="n">
-        <v>2</v>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F529" t="inlineStr">
         <is>
@@ -12649,8 +13705,10 @@
       <c r="D530" t="n">
         <v>5</v>
       </c>
-      <c r="E530" t="n">
-        <v>1</v>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F530" t="inlineStr">
         <is>
@@ -12672,8 +13730,10 @@
       <c r="D531" t="n">
         <v>5</v>
       </c>
-      <c r="E531" t="n">
-        <v>2</v>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
@@ -12695,8 +13755,10 @@
       <c r="D532" t="n">
         <v>3</v>
       </c>
-      <c r="E532" t="n">
-        <v>4</v>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F532" t="inlineStr">
         <is>
@@ -12718,8 +13780,10 @@
       <c r="D533" t="n">
         <v>9</v>
       </c>
-      <c r="E533" t="n">
-        <v>4</v>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -12741,8 +13805,10 @@
       <c r="D534" t="n">
         <v>7</v>
       </c>
-      <c r="E534" t="n">
-        <v>3</v>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -12764,8 +13830,10 @@
       <c r="D535" t="n">
         <v>3</v>
       </c>
-      <c r="E535" t="n">
-        <v>3</v>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -12787,8 +13855,10 @@
       <c r="D536" t="n">
         <v>6</v>
       </c>
-      <c r="E536" t="n">
-        <v>3</v>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -12810,8 +13880,10 @@
       <c r="D537" t="n">
         <v>3</v>
       </c>
-      <c r="E537" t="n">
-        <v>4</v>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
@@ -12833,8 +13905,10 @@
       <c r="D538" t="n">
         <v>2</v>
       </c>
-      <c r="E538" t="n">
-        <v>2</v>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
@@ -12856,8 +13930,10 @@
       <c r="D539" t="n">
         <v>5</v>
       </c>
-      <c r="E539" t="n">
-        <v>4</v>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -12879,8 +13955,10 @@
       <c r="D540" t="n">
         <v>3</v>
       </c>
-      <c r="E540" t="n">
-        <v>2</v>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -12902,8 +13980,10 @@
       <c r="D541" t="n">
         <v>4</v>
       </c>
-      <c r="E541" t="n">
-        <v>4</v>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
@@ -12925,8 +14005,10 @@
       <c r="D542" t="n">
         <v>5</v>
       </c>
-      <c r="E542" t="n">
-        <v>1</v>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F542" t="inlineStr">
         <is>
@@ -12948,8 +14030,10 @@
       <c r="D543" t="n">
         <v>5</v>
       </c>
-      <c r="E543" t="n">
-        <v>3</v>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F543" t="inlineStr">
         <is>
@@ -12971,8 +14055,10 @@
       <c r="D544" t="n">
         <v>3</v>
       </c>
-      <c r="E544" t="n">
-        <v>4</v>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
@@ -12994,8 +14080,10 @@
       <c r="D545" t="n">
         <v>9</v>
       </c>
-      <c r="E545" t="n">
-        <v>1</v>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -13017,8 +14105,10 @@
       <c r="D546" t="n">
         <v>9</v>
       </c>
-      <c r="E546" t="n">
-        <v>1</v>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F546" t="inlineStr">
         <is>
@@ -13040,8 +14130,10 @@
       <c r="D547" t="n">
         <v>4</v>
       </c>
-      <c r="E547" t="n">
-        <v>1</v>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -13063,8 +14155,10 @@
       <c r="D548" t="n">
         <v>5</v>
       </c>
-      <c r="E548" t="n">
-        <v>0</v>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F548" t="inlineStr">
         <is>
@@ -13086,8 +14180,10 @@
       <c r="D549" t="n">
         <v>7</v>
       </c>
-      <c r="E549" t="n">
-        <v>3</v>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F549" t="inlineStr">
         <is>
@@ -13109,8 +14205,10 @@
       <c r="D550" t="n">
         <v>9</v>
       </c>
-      <c r="E550" t="n">
-        <v>1</v>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F550" t="inlineStr">
         <is>
@@ -13132,8 +14230,10 @@
       <c r="D551" t="n">
         <v>6</v>
       </c>
-      <c r="E551" t="n">
-        <v>1</v>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -13155,8 +14255,10 @@
       <c r="D552" t="n">
         <v>9</v>
       </c>
-      <c r="E552" t="n">
-        <v>2</v>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -13178,8 +14280,10 @@
       <c r="D553" t="n">
         <v>9</v>
       </c>
-      <c r="E553" t="n">
-        <v>1</v>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -13201,8 +14305,10 @@
       <c r="D554" t="n">
         <v>9</v>
       </c>
-      <c r="E554" t="n">
-        <v>4</v>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F554" t="inlineStr">
         <is>
@@ -13224,8 +14330,10 @@
       <c r="D555" t="n">
         <v>5</v>
       </c>
-      <c r="E555" t="n">
-        <v>1</v>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -13247,8 +14355,10 @@
       <c r="D556" t="n">
         <v>8</v>
       </c>
-      <c r="E556" t="n">
-        <v>4</v>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -13270,8 +14380,10 @@
       <c r="D557" t="n">
         <v>2</v>
       </c>
-      <c r="E557" t="n">
-        <v>2</v>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -13293,8 +14405,10 @@
       <c r="D558" t="n">
         <v>6</v>
       </c>
-      <c r="E558" t="n">
-        <v>1</v>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -13316,8 +14430,10 @@
       <c r="D559" t="n">
         <v>5</v>
       </c>
-      <c r="E559" t="n">
-        <v>1</v>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F559" t="inlineStr">
         <is>
@@ -13339,8 +14455,10 @@
       <c r="D560" t="n">
         <v>6</v>
       </c>
-      <c r="E560" t="n">
-        <v>2</v>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -13362,8 +14480,10 @@
       <c r="D561" t="n">
         <v>6</v>
       </c>
-      <c r="E561" t="n">
-        <v>4</v>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -13385,8 +14505,10 @@
       <c r="D562" t="n">
         <v>5</v>
       </c>
-      <c r="E562" t="n">
-        <v>1</v>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -13408,8 +14530,10 @@
       <c r="D563" t="n">
         <v>4</v>
       </c>
-      <c r="E563" t="n">
-        <v>1</v>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F563" t="inlineStr">
         <is>
@@ -13431,8 +14555,10 @@
       <c r="D564" t="n">
         <v>2</v>
       </c>
-      <c r="E564" t="n">
-        <v>4</v>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -13454,8 +14580,10 @@
       <c r="D565" t="n">
         <v>6</v>
       </c>
-      <c r="E565" t="n">
-        <v>1</v>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
@@ -13477,8 +14605,10 @@
       <c r="D566" t="n">
         <v>8</v>
       </c>
-      <c r="E566" t="n">
-        <v>2</v>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -13500,8 +14630,10 @@
       <c r="D567" t="n">
         <v>3</v>
       </c>
-      <c r="E567" t="n">
-        <v>4</v>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
@@ -13523,8 +14655,10 @@
       <c r="D568" t="n">
         <v>9</v>
       </c>
-      <c r="E568" t="n">
-        <v>3</v>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -13546,8 +14680,10 @@
       <c r="D569" t="n">
         <v>9</v>
       </c>
-      <c r="E569" t="n">
-        <v>3</v>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
@@ -13569,8 +14705,10 @@
       <c r="D570" t="n">
         <v>3</v>
       </c>
-      <c r="E570" t="n">
-        <v>3</v>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
@@ -13592,8 +14730,10 @@
       <c r="D571" t="n">
         <v>2</v>
       </c>
-      <c r="E571" t="n">
-        <v>1</v>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -13615,8 +14755,10 @@
       <c r="D572" t="n">
         <v>7</v>
       </c>
-      <c r="E572" t="n">
-        <v>3</v>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -13638,8 +14780,10 @@
       <c r="D573" t="n">
         <v>9</v>
       </c>
-      <c r="E573" t="n">
-        <v>2</v>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -13661,8 +14805,10 @@
       <c r="D574" t="n">
         <v>5</v>
       </c>
-      <c r="E574" t="n">
-        <v>3</v>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F574" t="inlineStr">
         <is>
@@ -13684,8 +14830,10 @@
       <c r="D575" t="n">
         <v>8</v>
       </c>
-      <c r="E575" t="n">
-        <v>3</v>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -13707,8 +14855,10 @@
       <c r="D576" t="n">
         <v>1</v>
       </c>
-      <c r="E576" t="n">
-        <v>2</v>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
@@ -13730,8 +14880,10 @@
       <c r="D577" t="n">
         <v>9</v>
       </c>
-      <c r="E577" t="n">
-        <v>1</v>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F577" t="inlineStr">
         <is>
@@ -13753,8 +14905,10 @@
       <c r="D578" t="n">
         <v>9</v>
       </c>
-      <c r="E578" t="n">
-        <v>1</v>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F578" t="inlineStr">
         <is>
@@ -13776,8 +14930,10 @@
       <c r="D579" t="n">
         <v>9</v>
       </c>
-      <c r="E579" t="n">
-        <v>2</v>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
@@ -13799,8 +14955,10 @@
       <c r="D580" t="n">
         <v>7</v>
       </c>
-      <c r="E580" t="n">
-        <v>2</v>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
@@ -13822,8 +14980,10 @@
       <c r="D581" t="n">
         <v>6</v>
       </c>
-      <c r="E581" t="n">
-        <v>4</v>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
@@ -13845,8 +15005,10 @@
       <c r="D582" t="n">
         <v>4</v>
       </c>
-      <c r="E582" t="n">
-        <v>4</v>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F582" t="inlineStr">
         <is>
@@ -13868,8 +15030,10 @@
       <c r="D583" t="n">
         <v>4</v>
       </c>
-      <c r="E583" t="n">
-        <v>3</v>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F583" t="inlineStr">
         <is>
@@ -13891,8 +15055,10 @@
       <c r="D584" t="n">
         <v>3</v>
       </c>
-      <c r="E584" t="n">
-        <v>2</v>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F584" t="inlineStr">
         <is>
@@ -13914,8 +15080,10 @@
       <c r="D585" t="n">
         <v>8</v>
       </c>
-      <c r="E585" t="n">
-        <v>3</v>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F585" t="inlineStr">
         <is>
@@ -13937,8 +15105,10 @@
       <c r="D586" t="n">
         <v>9</v>
       </c>
-      <c r="E586" t="n">
-        <v>1</v>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F586" t="inlineStr">
         <is>
@@ -13960,8 +15130,10 @@
       <c r="D587" t="n">
         <v>8</v>
       </c>
-      <c r="E587" t="n">
-        <v>2</v>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
@@ -13983,8 +15155,10 @@
       <c r="D588" t="n">
         <v>4</v>
       </c>
-      <c r="E588" t="n">
-        <v>1</v>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
@@ -14006,8 +15180,10 @@
       <c r="D589" t="n">
         <v>7</v>
       </c>
-      <c r="E589" t="n">
-        <v>2</v>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F589" t="inlineStr">
         <is>
@@ -14029,8 +15205,10 @@
       <c r="D590" t="n">
         <v>9</v>
       </c>
-      <c r="E590" t="n">
-        <v>3</v>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F590" t="inlineStr">
         <is>
@@ -14052,8 +15230,10 @@
       <c r="D591" t="n">
         <v>8</v>
       </c>
-      <c r="E591" t="n">
-        <v>0</v>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
@@ -14075,8 +15255,10 @@
       <c r="D592" t="n">
         <v>7</v>
       </c>
-      <c r="E592" t="n">
-        <v>0</v>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
@@ -14098,8 +15280,10 @@
       <c r="D593" t="n">
         <v>1</v>
       </c>
-      <c r="E593" t="n">
-        <v>3</v>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F593" t="inlineStr">
         <is>
@@ -14121,8 +15305,10 @@
       <c r="D594" t="n">
         <v>6</v>
       </c>
-      <c r="E594" t="n">
-        <v>1</v>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F594" t="inlineStr">
         <is>
@@ -14144,8 +15330,10 @@
       <c r="D595" t="n">
         <v>4</v>
       </c>
-      <c r="E595" t="n">
-        <v>2</v>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F595" t="inlineStr">
         <is>
@@ -14167,8 +15355,10 @@
       <c r="D596" t="n">
         <v>9</v>
       </c>
-      <c r="E596" t="n">
-        <v>3</v>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F596" t="inlineStr">
         <is>
@@ -14190,8 +15380,10 @@
       <c r="D597" t="n">
         <v>9</v>
       </c>
-      <c r="E597" t="n">
-        <v>2</v>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F597" t="inlineStr">
         <is>
@@ -14213,8 +15405,10 @@
       <c r="D598" t="n">
         <v>9</v>
       </c>
-      <c r="E598" t="n">
-        <v>4</v>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F598" t="inlineStr">
         <is>
@@ -14236,8 +15430,10 @@
       <c r="D599" t="n">
         <v>3</v>
       </c>
-      <c r="E599" t="n">
-        <v>2</v>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F599" t="inlineStr">
         <is>
@@ -14259,8 +15455,10 @@
       <c r="D600" t="n">
         <v>3</v>
       </c>
-      <c r="E600" t="n">
-        <v>2</v>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F600" t="inlineStr">
         <is>
